--- a/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/t1.xlsx
+++ b/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/t1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\performances\Relazione Performances\2020 relazione performance tab e figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8F8AC7-206F-4CCD-B034-38A3AB2CC53B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B7954-DACC-44DB-98B8-2E9DB2024866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{FFEF8B76-C105-4947-B69B-A37D00237B23}"/>
   </bookViews>
@@ -36,28 +36,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Regioni</t>
-  </si>
-  <si>
-    <t>Popolazione residenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superficie km² </t>
-  </si>
-  <si>
-    <t>Densità abitanti/km²</t>
-  </si>
-  <si>
-    <t>Numero Comuni</t>
-  </si>
-  <si>
-    <t>Numero provincie</t>
-  </si>
-  <si>
     <t>Lombardia</t>
   </si>
   <si>
     <t>Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Regione</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provincie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superficie (km²) </t>
+  </si>
+  <si>
+    <t>Popolazione</t>
+  </si>
+  <si>
+    <t>Densità (ab/km²)</t>
   </si>
 </sst>
 </file>
@@ -503,38 +503,39 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>10103969</v>
@@ -554,7 +555,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>4467118</v>
